--- a/VMP_Udts.xlsx
+++ b/VMP_Udts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zaxis\Pump\Release\RabbitCode\VMP_1_4\PLC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zaxis\Pump\Trunk\Firmware\Rabbit Code\VMP\PLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013DBE61-7B3B-445B-B835-8568BBF1ED82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A079B044-8EE6-4A08-846D-3A87B249FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="6315" windowWidth="24285" windowHeight="20475" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25980" yWindow="972" windowWidth="17256" windowHeight="10572" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StringTypes" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="398">
   <si>
     <t>BOOL</t>
   </si>
@@ -380,12 +380,6 @@
     <t>Spare29</t>
   </si>
   <si>
-    <t>Spare30</t>
-  </si>
-  <si>
-    <t>Spare31</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -1209,6 +1203,39 @@
   </si>
   <si>
     <t>Bit 8 thru Bit 23 Spare</t>
+  </si>
+  <si>
+    <t>Status Get</t>
+  </si>
+  <si>
+    <t>Frees motor allowing head to be changed.</t>
+  </si>
+  <si>
+    <t>SetBoreSize</t>
+  </si>
+  <si>
+    <t>Use the Volume value to set a new bore size</t>
+  </si>
+  <si>
+    <t>IgnoreCurValue</t>
+  </si>
+  <si>
+    <t>Used by Zaxis Calibrator. DO NOT USE</t>
+  </si>
+  <si>
+    <t>RefreshTsi</t>
+  </si>
+  <si>
+    <t>Refresh Tsi. Use only when debugging</t>
+  </si>
+  <si>
+    <t>BoreSizeSet</t>
+  </si>
+  <si>
+    <t>In change head mode</t>
+  </si>
+  <si>
+    <t>The SetBoreSize command has completed.</t>
   </si>
 </sst>
 </file>
@@ -1606,24 +1633,24 @@
       <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1632,29 +1659,29 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1663,32 +1690,32 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" t="s">
         <v>198</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1697,21 +1724,21 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -1734,39 +1761,39 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="H1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1797,9 +1824,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1808,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -1829,9 +1856,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1861,9 +1888,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1893,9 +1920,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1925,9 +1952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1957,9 +1984,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1989,9 +2016,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -2021,9 +2048,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -2032,7 +2059,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -2053,9 +2080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -2064,13 +2091,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
@@ -2088,9 +2115,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -2099,13 +2126,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -2123,9 +2150,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -2134,13 +2161,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
@@ -2158,9 +2185,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H14" s="2">
         <f>SUM(H2:H13)</f>
@@ -2191,46 +2218,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.109375" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="H1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2246,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -2261,9 +2288,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2279,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -2297,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -2315,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -2333,9 +2360,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -2351,7 +2378,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -2369,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -2387,7 +2414,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2405,9 +2432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -2423,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -2441,9 +2468,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -2459,7 +2486,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -2477,9 +2504,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
@@ -2495,7 +2522,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -2513,9 +2540,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -2531,7 +2558,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -2549,9 +2576,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -2567,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -2585,9 +2612,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -2603,7 +2630,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -2621,9 +2648,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -2657,9 +2684,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -2675,7 +2702,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -2693,9 +2720,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -2711,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -2729,9 +2756,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -2747,7 +2774,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -2765,9 +2792,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
@@ -2783,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -2801,9 +2828,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
@@ -2819,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2837,9 +2864,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -2855,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -2873,9 +2900,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
@@ -2891,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -2909,9 +2936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -2927,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>6</v>
+        <v>388</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -2945,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -2955,15 +2982,14 @@
       <c r="C22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v>Spare20</v>
+      <c r="D22" t="s">
+        <v>389</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>6</v>
+        <v>390</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -2981,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -2992,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f>A23</f>
         <v>Spare21</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -3017,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -3053,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -3089,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -3125,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -3161,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -3197,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -3233,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -3269,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -3305,9 +3331,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>391</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>0</v>
@@ -3315,15 +3341,14 @@
       <c r="C32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>Spare30</v>
+      <c r="D32" t="s">
+        <v>391</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>6</v>
+        <v>392</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -3341,9 +3366,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
@@ -3351,15 +3376,14 @@
       <c r="C33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>Spare31</v>
+      <c r="D33" t="s">
+        <v>393</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>6</v>
+        <v>394</v>
       </c>
       <c r="H33" s="2">
         <v>4</v>
@@ -3377,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -3395,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H34" s="2">
         <v>4</v>
@@ -3413,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -3431,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H35" s="2">
         <v>4</v>
@@ -3449,9 +3473,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>13</v>
@@ -3467,7 +3491,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H36" s="2">
         <v>2</v>
@@ -3485,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -3503,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H37" s="2">
         <v>2</v>
@@ -3521,9 +3545,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>13</v>
@@ -3539,7 +3563,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H38" s="2">
         <v>2</v>
@@ -3557,9 +3581,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>13</v>
@@ -3575,7 +3599,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H39" s="2">
         <v>2</v>
@@ -3593,9 +3617,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -3611,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H40" s="2">
         <v>2</v>
@@ -3629,9 +3653,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
@@ -3647,7 +3671,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H41" s="2">
         <v>2</v>
@@ -3665,9 +3689,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G42" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H42" s="2">
         <f>SUM(H2:H41)</f>
@@ -3698,46 +3722,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" customWidth="1"/>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="H1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>13</v>
@@ -3750,11 +3774,11 @@
         <v>CosType</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -3769,9 +3793,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -3784,10 +3808,10 @@
         <v>ClassId</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -3805,9 +3829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -3820,10 +3844,10 @@
         <v>Instance</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -3841,9 +3865,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -3856,10 +3880,10 @@
         <v>Attribute</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -3877,9 +3901,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -3892,10 +3916,10 @@
         <v>CfgVersion</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -3913,9 +3937,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -3928,10 +3952,10 @@
         <v>CfgLength</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
@@ -3949,7 +3973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -3964,10 +3988,10 @@
         <v>Ready</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -3985,7 +4009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -4000,10 +4024,10 @@
         <v>Running</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -4021,7 +4045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -4036,10 +4060,10 @@
         <v>Abort</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -4057,9 +4081,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -4072,10 +4096,10 @@
         <v>DirectionCC</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -4093,7 +4117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -4108,10 +4132,10 @@
         <v>ContinuousRun</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -4129,9 +4153,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -4144,10 +4168,10 @@
         <v>SpareBit</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -4165,7 +4189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -4180,10 +4204,10 @@
         <v>AtMaxShot</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -4201,9 +4225,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -4216,10 +4240,10 @@
         <v>CmdAck</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -4237,9 +4261,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -4252,10 +4276,10 @@
         <v>BadVolume</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -4273,9 +4297,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
@@ -4288,10 +4312,10 @@
         <v>AtShotSize</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -4309,9 +4333,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
@@ -4324,10 +4348,10 @@
         <v>InLinkDelay</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -4345,9 +4369,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -4360,10 +4384,10 @@
         <v>InZinchMode</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -4381,9 +4405,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
@@ -4396,10 +4420,10 @@
         <v>InChangeHead</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -4417,9 +4441,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>395</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -4429,13 +4453,13 @@
       </c>
       <c r="D21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Spare1_13</v>
+        <v>BoreSizeSet</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>6</v>
+        <v>397</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -4453,9 +4477,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
@@ -4468,7 +4492,7 @@
         <v>Spare1_14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>6</v>
@@ -4489,9 +4513,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
@@ -4504,7 +4528,7 @@
         <v>Spare1_15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>6</v>
@@ -4525,9 +4549,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -4540,7 +4564,7 @@
         <v>Spare1_16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>6</v>
@@ -4561,9 +4585,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
@@ -4576,7 +4600,7 @@
         <v>Spare1_17</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>6</v>
@@ -4597,9 +4621,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
@@ -4612,7 +4636,7 @@
         <v>Spare1_18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>6</v>
@@ -4633,9 +4657,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -4648,7 +4672,7 @@
         <v>Spare1_19</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>6</v>
@@ -4669,9 +4693,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
@@ -4684,7 +4708,7 @@
         <v>Spare1_20</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>6</v>
@@ -4705,9 +4729,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>0</v>
@@ -4720,7 +4744,7 @@
         <v>Spare1_21</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>6</v>
@@ -4741,9 +4765,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
@@ -4756,7 +4780,7 @@
         <v>Spare1_22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>6</v>
@@ -4777,9 +4801,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>0</v>
@@ -4792,7 +4816,7 @@
         <v>Spare1_23</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>6</v>
@@ -4813,9 +4837,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>0</v>
@@ -4828,7 +4852,7 @@
         <v>Spare1_24</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>6</v>
@@ -4849,9 +4873,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
@@ -4864,7 +4888,7 @@
         <v>Spare1_25</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>6</v>
@@ -4885,9 +4909,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
@@ -4900,7 +4924,7 @@
         <v>Spare1_26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>6</v>
@@ -4921,9 +4945,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
@@ -4936,7 +4960,7 @@
         <v>Spare1_27</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>6</v>
@@ -4957,9 +4981,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>0</v>
@@ -4972,10 +4996,10 @@
         <v>FaultDispenseSensor</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -4993,9 +5017,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
@@ -5008,10 +5032,10 @@
         <v>FaultDispenseMotor</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -5029,9 +5053,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
@@ -5044,10 +5068,10 @@
         <v>FaultAdjustMotor</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -5065,9 +5089,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
@@ -5080,10 +5104,10 @@
         <v>FaultAdjustSensor</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H39" s="2">
         <v>4</v>
@@ -5101,9 +5125,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>13</v>
@@ -5116,10 +5140,10 @@
         <v>CurrentProgram</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H40" s="2">
         <v>2</v>
@@ -5137,7 +5161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -5152,10 +5176,10 @@
         <v>Revolutions</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H41" s="2">
         <v>2</v>
@@ -5173,9 +5197,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>13</v>
@@ -5188,10 +5212,10 @@
         <v>Rpm</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H42" s="2">
         <v>2</v>
@@ -5209,9 +5233,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>13</v>
@@ -5224,10 +5248,10 @@
         <v>FineAdj</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H43" s="2">
         <v>2</v>
@@ -5245,9 +5269,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
@@ -5260,10 +5284,10 @@
         <v>CurrentRevolution</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
@@ -5281,9 +5305,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>13</v>
@@ -5296,10 +5320,10 @@
         <v>SpareInt1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H45" s="2">
         <v>2</v>
@@ -5317,9 +5341,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>3</v>
@@ -5332,10 +5356,10 @@
         <v>CurrentVolume</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H46" s="2">
         <v>4</v>
@@ -5353,9 +5377,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>3</v>
@@ -5368,10 +5392,10 @@
         <v>DesiredVolume</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H47" s="2">
         <v>4</v>
@@ -5389,9 +5413,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>3</v>
@@ -5404,10 +5428,10 @@
         <v>SpareDint1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H48" s="2">
         <v>4</v>
@@ -5425,9 +5449,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G49" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H49" s="2">
         <f>SUM(H2:H48)</f>
@@ -5459,46 +5483,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" customWidth="1"/>
+    <col min="7" max="7" width="62.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="H1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>13</v>
@@ -5511,11 +5535,11 @@
         <v>CosType</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -5530,9 +5554,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -5548,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -5566,9 +5590,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -5584,7 +5608,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -5602,9 +5626,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -5620,7 +5644,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -5638,9 +5662,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -5656,7 +5680,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -5674,9 +5698,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -5692,7 +5716,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
@@ -5710,7 +5734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -5728,7 +5752,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -5746,7 +5770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -5764,7 +5788,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -5782,9 +5806,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -5800,7 +5824,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -5818,9 +5842,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -5851,9 +5875,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -5884,9 +5908,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -5917,9 +5941,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -5950,9 +5974,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -5983,9 +6007,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -6016,9 +6040,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
@@ -6049,9 +6073,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
@@ -6082,9 +6106,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -6115,9 +6139,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
@@ -6148,9 +6172,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -6181,9 +6205,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
@@ -6214,9 +6238,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
@@ -6247,9 +6271,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -6280,9 +6304,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
@@ -6313,9 +6337,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
@@ -6346,9 +6370,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -6379,9 +6403,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
@@ -6412,9 +6436,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>0</v>
@@ -6445,9 +6469,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
@@ -6478,9 +6502,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>0</v>
@@ -6511,9 +6535,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>0</v>
@@ -6544,9 +6568,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
@@ -6577,9 +6601,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
@@ -6610,9 +6634,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
@@ -6643,9 +6667,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>0</v>
@@ -6676,9 +6700,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
@@ -6709,9 +6733,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
@@ -6742,9 +6766,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
@@ -6775,9 +6799,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -6793,7 +6817,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H40" s="2">
         <v>2</v>
@@ -6811,7 +6835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -6829,7 +6853,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H41" s="2">
         <v>2</v>
@@ -6847,9 +6871,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>13</v>
@@ -6865,7 +6889,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H42" s="2">
         <v>2</v>
@@ -6883,9 +6907,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>13</v>
@@ -6901,7 +6925,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H43" s="2">
         <v>2</v>
@@ -6919,9 +6943,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
@@ -6937,7 +6961,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
@@ -6955,9 +6979,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
@@ -6973,7 +6997,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H45" s="2">
         <v>2</v>
@@ -6991,9 +7015,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -7027,9 +7051,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>13</v>
@@ -7063,9 +7087,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>13</v>
@@ -7099,7 +7123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -7135,7 +7159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -7171,7 +7195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -7207,7 +7231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -7243,7 +7267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -7279,7 +7303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -7315,7 +7339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -7351,7 +7375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -7387,9 +7411,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>13</v>
@@ -7405,7 +7429,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H57" s="2">
         <v>2</v>
@@ -7423,9 +7447,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -7441,7 +7465,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H58" s="2">
         <v>2</v>
@@ -7459,9 +7483,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>13</v>
@@ -7477,7 +7501,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H59" s="2">
         <v>2</v>
@@ -7495,9 +7519,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>13</v>
@@ -7513,7 +7537,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H60" s="2">
         <v>2</v>
@@ -7531,9 +7555,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>13</v>
@@ -7549,7 +7573,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H61" s="2">
         <v>2</v>
@@ -7567,9 +7591,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>13</v>
@@ -7585,7 +7609,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H62" s="2">
         <v>2</v>
@@ -7603,9 +7627,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>13</v>
@@ -7621,7 +7645,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H63" s="2">
         <v>2</v>
@@ -7639,9 +7663,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -7657,7 +7681,7 @@
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H64" s="2">
         <v>2</v>
@@ -7675,9 +7699,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>13</v>
@@ -7693,7 +7717,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H65" s="2">
         <v>2</v>
@@ -7711,9 +7735,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>3</v>
@@ -7726,10 +7750,10 @@
         <v>AdjustMotorSteps</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H66" s="2">
         <v>4</v>
@@ -7747,9 +7771,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>3</v>
@@ -7762,10 +7786,10 @@
         <v>ApproxDispenseTime</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H67" s="2">
         <v>4</v>
@@ -7783,7 +7807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>89</v>
       </c>
@@ -7801,7 +7825,7 @@
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H68" s="2">
         <v>4</v>
@@ -7819,9 +7843,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>3</v>
@@ -7837,7 +7861,7 @@
         <v>2</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H69" s="2">
         <v>4</v>
@@ -7855,12 +7879,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>30</v>
@@ -7891,9 +7915,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G71" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H71" s="2">
         <f>SUM(H2:H70)</f>
@@ -7929,22 +7953,22 @@
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" customWidth="1"/>
+    <col min="7" max="7" width="62.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -7953,21 +7977,21 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>13</v>
@@ -7980,11 +8004,11 @@
         <v>CosType</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -7999,9 +8023,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -8017,7 +8041,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -8035,9 +8059,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -8053,7 +8077,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -8071,9 +8095,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -8089,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -8107,9 +8131,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -8125,7 +8149,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -8143,9 +8167,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -8161,7 +8185,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
@@ -8179,9 +8203,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>38</v>
@@ -8197,7 +8221,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -8215,9 +8239,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>38</v>
@@ -8233,7 +8257,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -8251,7 +8275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -8287,9 +8311,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -8305,7 +8329,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -8323,9 +8347,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -8338,10 +8362,10 @@
         <v>AdjustStepmode</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -8359,9 +8383,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -8377,7 +8401,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
@@ -8395,7 +8419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -8431,9 +8455,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -8449,7 +8473,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H15" s="2">
         <v>2</v>
@@ -8467,9 +8491,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>13</v>
@@ -8485,7 +8509,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H16" s="2">
         <v>2</v>
@@ -8503,9 +8527,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
@@ -8521,7 +8545,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H17" s="2">
         <v>2</v>
@@ -8539,7 +8563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -8557,7 +8581,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -8575,9 +8599,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -8593,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -8611,9 +8635,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
@@ -8629,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -8647,9 +8671,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -8665,7 +8689,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -8683,9 +8707,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
@@ -8701,7 +8725,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -8719,9 +8743,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
@@ -8737,7 +8761,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -8755,9 +8779,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -8773,7 +8797,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -8791,9 +8815,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
@@ -8809,7 +8833,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -8827,9 +8851,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
@@ -8845,7 +8869,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -8863,9 +8887,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -8897,9 +8921,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
@@ -8931,9 +8955,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>0</v>
@@ -8965,9 +8989,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
@@ -8999,9 +9023,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>0</v>
@@ -9033,9 +9057,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>0</v>
@@ -9067,9 +9091,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
@@ -9101,9 +9125,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
@@ -9135,9 +9159,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
@@ -9169,9 +9193,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>0</v>
@@ -9203,9 +9227,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
@@ -9237,9 +9261,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
@@ -9271,9 +9295,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
@@ -9305,9 +9329,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
@@ -9339,9 +9363,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
@@ -9373,9 +9397,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>0</v>
@@ -9391,7 +9415,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -9409,9 +9433,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>0</v>
@@ -9427,7 +9451,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -9445,9 +9469,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>0</v>
@@ -9479,9 +9503,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>0</v>
@@ -9513,9 +9537,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>0</v>
@@ -9547,9 +9571,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>0</v>
@@ -9581,9 +9605,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>0</v>
@@ -9615,9 +9639,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>0</v>
@@ -9649,7 +9673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -9664,7 +9688,7 @@
         <v>FirmwareRev</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>64</v>
@@ -9685,7 +9709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -9703,7 +9727,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H51" s="2">
         <v>4</v>
@@ -9721,9 +9745,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>3</v>
@@ -9739,7 +9763,7 @@
         <v>2</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H52" s="2">
         <v>4</v>
@@ -9757,9 +9781,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>3</v>
@@ -9775,7 +9799,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H53" s="2">
         <v>4</v>
@@ -9793,9 +9817,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>3</v>
@@ -9808,10 +9832,10 @@
         <v>FaultDispenseSensorCnt</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H54" s="2">
         <v>4</v>
@@ -9829,9 +9853,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>3</v>
@@ -9844,10 +9868,10 @@
         <v>FaultDispenseMotorCnt</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H55" s="2">
         <v>4</v>
@@ -9865,9 +9889,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>3</v>
@@ -9880,10 +9904,10 @@
         <v>FaultAdjustSensorCnt</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G56" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H56" s="2">
         <v>4</v>
@@ -9901,9 +9925,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>3</v>
@@ -9916,7 +9940,7 @@
         <v>FaultAdjustMotorCnt</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="2">
@@ -9935,7 +9959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -9953,7 +9977,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H58" s="2">
         <v>4</v>
@@ -9971,9 +9995,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
@@ -9989,7 +10013,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H59" s="2">
         <v>4</v>
@@ -10007,12 +10031,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>30</v>
@@ -10022,7 +10046,7 @@
         <v>SerialNumber</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>73</v>
@@ -10043,12 +10067,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>30</v>
@@ -10061,7 +10085,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H61" s="2">
         <v>20</v>
@@ -10079,12 +10103,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>30</v>
@@ -10097,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H62" s="2">
         <v>20</v>
@@ -10115,12 +10139,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>30</v>
@@ -10133,7 +10157,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H63" s="2">
         <v>20</v>
@@ -10151,12 +10175,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>30</v>
@@ -10166,10 +10190,10 @@
         <v>MacAddress</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H64" s="2">
         <v>28</v>
@@ -10187,12 +10211,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>30</v>
@@ -10202,10 +10226,10 @@
         <v>ModelNumber</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H65" s="2">
         <v>28</v>
@@ -10223,12 +10247,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>30</v>
@@ -10238,10 +10262,10 @@
         <v>OptionsAndFittings</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H66" s="2">
         <v>28</v>
@@ -10259,12 +10283,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>30</v>
@@ -10274,10 +10298,10 @@
         <v>SccsRevDate</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H67" s="2">
         <v>28</v>
@@ -10295,12 +10319,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>30</v>
@@ -10310,10 +10334,10 @@
         <v>SccsRev</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H68" s="2">
         <v>16</v>
@@ -10331,12 +10355,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>30</v>
@@ -10346,10 +10370,10 @@
         <v>SccsRevRange</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H69" s="2">
         <v>28</v>
@@ -10367,12 +10391,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="E70" s="2"/>
       <c r="G70" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H70" s="2">
         <f>SUM(H2:H69)</f>
@@ -10408,29 +10432,29 @@
       <selection activeCell="A2" sqref="A2:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="126" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="G1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -10450,7 +10474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -10461,7 +10485,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -10470,7 +10494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -10481,7 +10505,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -10490,7 +10514,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -10501,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -10510,7 +10534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -10521,7 +10545,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -10530,7 +10554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -10541,7 +10565,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -10550,7 +10574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -10561,7 +10585,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -10570,7 +10594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -10581,7 +10605,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -10590,7 +10614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -10601,7 +10625,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -10610,7 +10634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -10621,7 +10645,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -10630,7 +10654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -10641,7 +10665,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -10650,7 +10674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -10661,7 +10685,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -10670,7 +10694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -10681,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -10690,7 +10714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -10710,7 +10734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -10721,7 +10745,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
@@ -10730,7 +10754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -10750,7 +10774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -10761,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -10770,7 +10794,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -10781,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -10790,7 +10814,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -10801,7 +10825,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -10810,7 +10834,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -10821,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
@@ -10830,7 +10854,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -10841,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
@@ -10850,7 +10874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -10861,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
@@ -10870,7 +10894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -10881,7 +10905,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
@@ -10890,7 +10914,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -10901,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>

--- a/VMP_Udts.xlsx
+++ b/VMP_Udts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zaxis\Pump\Trunk\Firmware\Rabbit Code\VMP\PLC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zaxis\Pump\Release\RabbitCode\VMP_1_4\PLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A079B044-8EE6-4A08-846D-3A87B249FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B53818C-06C2-41B0-B191-8C6FA2EEF90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25980" yWindow="972" windowWidth="17256" windowHeight="10572" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28950" yWindow="4425" windowWidth="19200" windowHeight="26835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StringTypes" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="397">
   <si>
     <t>BOOL</t>
   </si>
@@ -348,9 +348,6 @@
   </si>
   <si>
     <t>Abort</t>
-  </si>
-  <si>
-    <t>Spare20</t>
   </si>
   <si>
     <t>Spare21</t>
@@ -1633,24 +1630,24 @@
       <selection activeCell="A2" sqref="A2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1659,29 +1656,29 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" t="s">
         <v>193</v>
       </c>
-      <c r="B3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C3" t="s">
-        <v>194</v>
-      </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1690,32 +1687,32 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
         <v>193</v>
       </c>
-      <c r="B6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" t="s">
-        <v>194</v>
-      </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1724,21 +1721,21 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" t="s">
         <v>193</v>
-      </c>
-      <c r="B9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C9" t="s">
-        <v>194</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -1761,39 +1758,39 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="H1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1824,9 +1821,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1835,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -1856,9 +1853,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1888,9 +1885,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1920,9 +1917,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1952,9 +1949,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1984,9 +1981,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -2016,9 +2013,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -2048,9 +2045,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -2059,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -2080,9 +2077,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -2091,13 +2088,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
@@ -2115,9 +2112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -2126,13 +2123,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -2150,9 +2147,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -2161,13 +2158,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
@@ -2185,9 +2182,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H14" s="2">
         <f>SUM(H2:H13)</f>
@@ -2218,46 +2215,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.109375" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="H1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2273,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -2288,9 +2285,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2306,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -2324,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -2342,7 +2339,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -2360,25 +2357,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>DirectionCC</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>DirectionCC</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>284</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -2396,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -2414,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -2432,9 +2429,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -2450,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -2468,9 +2465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>0</v>
@@ -2486,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -2504,25 +2501,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>IgnoreCmds</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>IgnoreCmds</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -2540,25 +2537,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>IncFineAdj</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>IncFineAdj</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -2576,9 +2573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -2594,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -2612,25 +2609,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>ResetRevsCnt</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>ResetRevsCnt</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -2648,9 +2645,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -2684,9 +2681,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -2702,7 +2699,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -2720,9 +2717,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -2738,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -2756,9 +2753,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -2774,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -2792,25 +2789,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>ZinchMode</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>ZinchMode</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -2828,25 +2825,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>ClearFaults</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>290</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>ClearFaults</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>291</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -2864,25 +2861,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>SetDesiredVolume</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>SetDesiredVolume</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -2900,9 +2897,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
@@ -2918,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -2936,9 +2933,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -2954,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -2972,9 +2969,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>388</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
@@ -2983,13 +2980,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
+        <v>388</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -3007,9 +3004,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
@@ -3043,9 +3040,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -3079,9 +3076,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
@@ -3115,9 +3112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
@@ -3151,9 +3148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -3187,9 +3184,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
@@ -3223,9 +3220,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>0</v>
@@ -3259,9 +3256,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
@@ -3295,9 +3292,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>0</v>
@@ -3331,24 +3328,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>390</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>391</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -3366,24 +3363,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>392</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>393</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="H33" s="2">
         <v>4</v>
@@ -3401,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -3419,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H34" s="2">
         <v>4</v>
@@ -3437,7 +3434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -3455,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H35" s="2">
         <v>4</v>
@@ -3473,9 +3470,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>13</v>
@@ -3491,7 +3488,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H36" s="2">
         <v>2</v>
@@ -3509,7 +3506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>87</v>
       </c>
@@ -3527,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H37" s="2">
         <v>2</v>
@@ -3545,9 +3542,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>13</v>
@@ -3563,7 +3560,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H38" s="2">
         <v>2</v>
@@ -3581,9 +3578,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>13</v>
@@ -3599,7 +3596,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H39" s="2">
         <v>2</v>
@@ -3617,9 +3614,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -3635,7 +3632,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H40" s="2">
         <v>2</v>
@@ -3653,9 +3650,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>13</v>
@@ -3671,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H41" s="2">
         <v>2</v>
@@ -3689,9 +3686,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G42" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H42" s="2">
         <f>SUM(H2:H41)</f>
@@ -3722,46 +3719,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" customWidth="1"/>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="H1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>13</v>
@@ -3774,11 +3771,11 @@
         <v>CosType</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -3793,9 +3790,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -3808,10 +3805,10 @@
         <v>ClassId</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -3829,9 +3826,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -3844,10 +3841,10 @@
         <v>Instance</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -3865,9 +3862,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -3880,10 +3877,10 @@
         <v>Attribute</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -3901,9 +3898,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -3916,10 +3913,10 @@
         <v>CfgVersion</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -3937,9 +3934,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -3952,10 +3949,10 @@
         <v>CfgLength</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
@@ -3973,7 +3970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -3988,10 +3985,10 @@
         <v>Ready</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -4009,7 +4006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -4024,10 +4021,10 @@
         <v>Running</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -4045,7 +4042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -4060,10 +4057,10 @@
         <v>Abort</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -4081,9 +4078,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -4096,10 +4093,10 @@
         <v>DirectionCC</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -4117,7 +4114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -4132,10 +4129,10 @@
         <v>ContinuousRun</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -4153,9 +4150,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -4168,10 +4165,10 @@
         <v>SpareBit</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -4189,7 +4186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -4204,10 +4201,10 @@
         <v>AtMaxShot</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -4225,9 +4222,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -4240,10 +4237,10 @@
         <v>CmdAck</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -4261,9 +4258,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -4276,10 +4273,10 @@
         <v>BadVolume</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -4297,9 +4294,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
@@ -4312,10 +4309,10 @@
         <v>AtShotSize</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -4333,25 +4330,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>InLinkDelay</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>InLinkDelay</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -4369,25 +4366,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>343</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>InZinchMode</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>InZinchMode</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -4405,9 +4402,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
@@ -4420,10 +4417,10 @@
         <v>InChangeHead</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -4441,9 +4438,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -4456,10 +4453,10 @@
         <v>BoreSizeSet</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -4477,9 +4474,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
@@ -4492,7 +4489,7 @@
         <v>Spare1_14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>6</v>
@@ -4513,9 +4510,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
@@ -4528,7 +4525,7 @@
         <v>Spare1_15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>6</v>
@@ -4549,9 +4546,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -4564,7 +4561,7 @@
         <v>Spare1_16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>6</v>
@@ -4585,9 +4582,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
@@ -4600,7 +4597,7 @@
         <v>Spare1_17</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>6</v>
@@ -4621,9 +4618,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
@@ -4636,7 +4633,7 @@
         <v>Spare1_18</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>6</v>
@@ -4657,9 +4654,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -4672,7 +4669,7 @@
         <v>Spare1_19</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>6</v>
@@ -4693,9 +4690,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
@@ -4708,7 +4705,7 @@
         <v>Spare1_20</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>6</v>
@@ -4729,9 +4726,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>0</v>
@@ -4744,7 +4741,7 @@
         <v>Spare1_21</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>6</v>
@@ -4765,9 +4762,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
@@ -4780,7 +4777,7 @@
         <v>Spare1_22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>6</v>
@@ -4801,9 +4798,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>0</v>
@@ -4816,7 +4813,7 @@
         <v>Spare1_23</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>6</v>
@@ -4837,9 +4834,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>0</v>
@@ -4852,7 +4849,7 @@
         <v>Spare1_24</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>6</v>
@@ -4873,9 +4870,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
@@ -4888,7 +4885,7 @@
         <v>Spare1_25</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>6</v>
@@ -4909,9 +4906,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
@@ -4924,7 +4921,7 @@
         <v>Spare1_26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>6</v>
@@ -4945,9 +4942,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
@@ -4960,7 +4957,7 @@
         <v>Spare1_27</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>6</v>
@@ -4981,9 +4978,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>0</v>
@@ -4996,10 +4993,10 @@
         <v>FaultDispenseSensor</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -5017,9 +5014,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
@@ -5032,10 +5029,10 @@
         <v>FaultDispenseMotor</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -5053,9 +5050,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
@@ -5068,10 +5065,10 @@
         <v>FaultAdjustMotor</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -5089,9 +5086,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
@@ -5104,10 +5101,10 @@
         <v>FaultAdjustSensor</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H39" s="2">
         <v>4</v>
@@ -5125,9 +5122,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>13</v>
@@ -5140,10 +5137,10 @@
         <v>CurrentProgram</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H40" s="2">
         <v>2</v>
@@ -5161,7 +5158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -5176,10 +5173,10 @@
         <v>Revolutions</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H41" s="2">
         <v>2</v>
@@ -5197,9 +5194,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>13</v>
@@ -5212,10 +5209,10 @@
         <v>Rpm</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H42" s="2">
         <v>2</v>
@@ -5233,9 +5230,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>13</v>
@@ -5248,10 +5245,10 @@
         <v>FineAdj</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H43" s="2">
         <v>2</v>
@@ -5269,9 +5266,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
@@ -5284,10 +5281,10 @@
         <v>CurrentRevolution</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
@@ -5305,9 +5302,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>13</v>
@@ -5320,10 +5317,10 @@
         <v>SpareInt1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H45" s="2">
         <v>2</v>
@@ -5341,9 +5338,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>3</v>
@@ -5356,10 +5353,10 @@
         <v>CurrentVolume</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H46" s="2">
         <v>4</v>
@@ -5377,9 +5374,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>3</v>
@@ -5392,10 +5389,10 @@
         <v>DesiredVolume</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H47" s="2">
         <v>4</v>
@@ -5413,9 +5410,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>3</v>
@@ -5428,10 +5425,10 @@
         <v>SpareDint1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H48" s="2">
         <v>4</v>
@@ -5449,9 +5446,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="7:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G49" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H49" s="2">
         <f>SUM(H2:H48)</f>
@@ -5487,42 +5484,42 @@
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.33203125" customWidth="1"/>
-    <col min="7" max="7" width="62.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="H1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>13</v>
@@ -5535,11 +5532,11 @@
         <v>CosType</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -5554,9 +5551,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -5572,7 +5569,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -5590,9 +5587,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -5608,7 +5605,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -5626,9 +5623,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -5644,7 +5641,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -5662,9 +5659,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -5680,7 +5677,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -5698,9 +5695,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -5716,7 +5713,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
@@ -5734,7 +5731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -5752,7 +5749,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -5770,7 +5767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -5788,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -5806,9 +5803,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -5824,7 +5821,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -5842,9 +5839,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
@@ -5875,9 +5872,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -5908,9 +5905,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>0</v>
@@ -5941,9 +5938,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -5974,9 +5971,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
@@ -6007,9 +6004,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -6040,9 +6037,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>0</v>
@@ -6073,9 +6070,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>0</v>
@@ -6106,9 +6103,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -6139,9 +6136,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
@@ -6172,9 +6169,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -6205,9 +6202,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
@@ -6238,9 +6235,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
@@ -6271,9 +6268,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -6304,9 +6301,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
@@ -6337,9 +6334,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
@@ -6370,9 +6367,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -6403,9 +6400,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
@@ -6436,9 +6433,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>0</v>
@@ -6469,9 +6466,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
@@ -6502,9 +6499,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>0</v>
@@ -6535,9 +6532,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>0</v>
@@ -6568,9 +6565,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
@@ -6601,9 +6598,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
@@ -6634,9 +6631,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
@@ -6667,9 +6664,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>0</v>
@@ -6700,9 +6697,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
@@ -6733,9 +6730,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
@@ -6766,9 +6763,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
@@ -6799,9 +6796,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>13</v>
@@ -6817,7 +6814,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H40" s="2">
         <v>2</v>
@@ -6835,7 +6832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -6853,7 +6850,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H41" s="2">
         <v>2</v>
@@ -6871,9 +6868,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>13</v>
@@ -6889,7 +6886,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H42" s="2">
         <v>2</v>
@@ -6907,9 +6904,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>13</v>
@@ -6925,7 +6922,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H43" s="2">
         <v>2</v>
@@ -6943,9 +6940,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
@@ -6961,7 +6958,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H44" s="2">
         <v>2</v>
@@ -6979,9 +6976,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
@@ -6997,7 +6994,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H45" s="2">
         <v>2</v>
@@ -7015,9 +7012,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>13</v>
@@ -7051,9 +7048,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>13</v>
@@ -7087,9 +7084,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>13</v>
@@ -7123,7 +7120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -7159,7 +7156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -7195,7 +7192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -7231,7 +7228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -7267,7 +7264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -7303,7 +7300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>95</v>
       </c>
@@ -7339,7 +7336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -7375,7 +7372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -7411,9 +7408,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>13</v>
@@ -7429,7 +7426,7 @@
         <v>2</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H57" s="2">
         <v>2</v>
@@ -7447,9 +7444,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>13</v>
@@ -7465,7 +7462,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H58" s="2">
         <v>2</v>
@@ -7483,9 +7480,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>13</v>
@@ -7501,7 +7498,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H59" s="2">
         <v>2</v>
@@ -7519,9 +7516,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>13</v>
@@ -7537,7 +7534,7 @@
         <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H60" s="2">
         <v>2</v>
@@ -7555,9 +7552,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>13</v>
@@ -7573,7 +7570,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H61" s="2">
         <v>2</v>
@@ -7591,9 +7588,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>13</v>
@@ -7609,7 +7606,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H62" s="2">
         <v>2</v>
@@ -7627,9 +7624,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>13</v>
@@ -7645,7 +7642,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H63" s="2">
         <v>2</v>
@@ -7663,9 +7660,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -7681,7 +7678,7 @@
         <v>2</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H64" s="2">
         <v>2</v>
@@ -7699,9 +7696,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>13</v>
@@ -7717,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H65" s="2">
         <v>2</v>
@@ -7735,9 +7732,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>3</v>
@@ -7750,10 +7747,10 @@
         <v>AdjustMotorSteps</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H66" s="2">
         <v>4</v>
@@ -7771,9 +7768,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>3</v>
@@ -7786,10 +7783,10 @@
         <v>ApproxDispenseTime</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H67" s="2">
         <v>4</v>
@@ -7807,7 +7804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>89</v>
       </c>
@@ -7825,7 +7822,7 @@
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H68" s="2">
         <v>4</v>
@@ -7843,9 +7840,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>3</v>
@@ -7861,7 +7858,7 @@
         <v>2</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H69" s="2">
         <v>4</v>
@@ -7879,12 +7876,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>30</v>
@@ -7915,9 +7912,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G71" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H71" s="2">
         <f>SUM(H2:H70)</f>
@@ -7953,22 +7950,22 @@
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" customWidth="1"/>
-    <col min="7" max="7" width="62.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -7977,21 +7974,21 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>13</v>
@@ -8004,11 +8001,11 @@
         <v>CosType</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H2" s="2">
         <v>2</v>
@@ -8023,9 +8020,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -8041,7 +8038,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -8059,9 +8056,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -8077,7 +8074,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -8095,9 +8092,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -8113,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -8131,9 +8128,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -8149,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -8167,9 +8164,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -8185,7 +8182,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
@@ -8203,9 +8200,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>38</v>
@@ -8221,7 +8218,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -8239,9 +8236,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>38</v>
@@ -8257,7 +8254,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -8275,7 +8272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -8311,9 +8308,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -8329,7 +8326,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -8347,9 +8344,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -8362,10 +8359,10 @@
         <v>AdjustStepmode</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -8383,9 +8380,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -8401,7 +8398,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
@@ -8419,7 +8416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -8455,9 +8452,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -8473,7 +8470,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H15" s="2">
         <v>2</v>
@@ -8491,9 +8488,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>13</v>
@@ -8509,7 +8506,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H16" s="2">
         <v>2</v>
@@ -8527,9 +8524,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
@@ -8545,7 +8542,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H17" s="2">
         <v>2</v>
@@ -8563,7 +8560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -8581,7 +8578,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -8599,9 +8596,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -8617,7 +8614,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -8635,9 +8632,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>0</v>
@@ -8653,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -8671,9 +8668,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>0</v>
@@ -8689,7 +8686,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -8707,9 +8704,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>0</v>
@@ -8725,7 +8722,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -8743,9 +8740,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>0</v>
@@ -8761,7 +8758,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -8779,9 +8776,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -8797,7 +8794,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -8815,25 +8812,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>IsFinePichAdj</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>IsFinePichAdj</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -8851,9 +8848,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>0</v>
@@ -8869,7 +8866,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -8887,9 +8884,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>0</v>
@@ -8921,9 +8918,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>0</v>
@@ -8955,9 +8952,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>0</v>
@@ -8989,9 +8986,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>0</v>
@@ -9023,9 +9020,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>0</v>
@@ -9057,9 +9054,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>0</v>
@@ -9091,9 +9088,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>0</v>
@@ -9125,9 +9122,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>0</v>
@@ -9159,9 +9156,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>0</v>
@@ -9193,9 +9190,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>0</v>
@@ -9227,9 +9224,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>0</v>
@@ -9261,9 +9258,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>0</v>
@@ -9295,9 +9292,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>0</v>
@@ -9329,9 +9326,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>0</v>
@@ -9363,9 +9360,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>0</v>
@@ -9397,25 +9394,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>IsServo</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D42" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>IsServo</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -9433,25 +9430,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>OkToResetDevice</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>OkToResetDevice</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>330</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -9469,9 +9466,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>0</v>
@@ -9503,9 +9500,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>0</v>
@@ -9537,9 +9534,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>0</v>
@@ -9571,9 +9568,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>0</v>
@@ -9605,9 +9602,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>0</v>
@@ -9639,9 +9636,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>0</v>
@@ -9673,7 +9670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -9688,7 +9685,7 @@
         <v>FirmwareRev</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>64</v>
@@ -9709,7 +9706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -9727,7 +9724,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H51" s="2">
         <v>4</v>
@@ -9745,9 +9742,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>3</v>
@@ -9763,7 +9760,7 @@
         <v>2</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H52" s="2">
         <v>4</v>
@@ -9781,9 +9778,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>3</v>
@@ -9799,7 +9796,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H53" s="2">
         <v>4</v>
@@ -9817,9 +9814,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>3</v>
@@ -9832,10 +9829,10 @@
         <v>FaultDispenseSensorCnt</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H54" s="2">
         <v>4</v>
@@ -9853,9 +9850,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>3</v>
@@ -9868,10 +9865,10 @@
         <v>FaultDispenseMotorCnt</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H55" s="2">
         <v>4</v>
@@ -9889,9 +9886,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>3</v>
@@ -9904,10 +9901,10 @@
         <v>FaultAdjustSensorCnt</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H56" s="2">
         <v>4</v>
@@ -9925,9 +9922,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>3</v>
@@ -9940,7 +9937,7 @@
         <v>FaultAdjustMotorCnt</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="2">
@@ -9959,7 +9956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -9977,7 +9974,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H58" s="2">
         <v>4</v>
@@ -9995,9 +9992,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
@@ -10013,7 +10010,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H59" s="2">
         <v>4</v>
@@ -10031,12 +10028,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>30</v>
@@ -10046,7 +10043,7 @@
         <v>SerialNumber</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>73</v>
@@ -10067,12 +10064,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>30</v>
@@ -10085,7 +10082,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H61" s="2">
         <v>20</v>
@@ -10103,12 +10100,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>30</v>
@@ -10121,7 +10118,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H62" s="2">
         <v>20</v>
@@ -10139,12 +10136,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>30</v>
@@ -10157,7 +10154,7 @@
         <v>2</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H63" s="2">
         <v>20</v>
@@ -10175,12 +10172,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>30</v>
@@ -10190,10 +10187,10 @@
         <v>MacAddress</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H64" s="2">
         <v>28</v>
@@ -10211,12 +10208,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>30</v>
@@ -10226,10 +10223,10 @@
         <v>ModelNumber</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H65" s="2">
         <v>28</v>
@@ -10247,12 +10244,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>30</v>
@@ -10262,10 +10259,10 @@
         <v>OptionsAndFittings</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H66" s="2">
         <v>28</v>
@@ -10283,12 +10280,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>30</v>
@@ -10298,10 +10295,10 @@
         <v>SccsRevDate</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H67" s="2">
         <v>28</v>
@@ -10319,12 +10316,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>235</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>30</v>
@@ -10334,10 +10331,10 @@
         <v>SccsRev</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H68" s="2">
         <v>16</v>
@@ -10355,12 +10352,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>30</v>
@@ -10370,10 +10367,10 @@
         <v>SccsRevRange</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H69" s="2">
         <v>28</v>
@@ -10391,12 +10388,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="E70" s="2"/>
       <c r="G70" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H70" s="2">
         <f>SUM(H2:H69)</f>
@@ -10432,29 +10429,29 @@
       <selection activeCell="A2" sqref="A2:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="126" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="G1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -10474,7 +10471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -10485,7 +10482,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -10494,7 +10491,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -10505,7 +10502,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -10514,7 +10511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -10525,7 +10522,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -10534,7 +10531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -10545,7 +10542,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -10554,7 +10551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -10565,7 +10562,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -10574,7 +10571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -10585,7 +10582,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -10594,7 +10591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -10605,7 +10602,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -10614,7 +10611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -10625,7 +10622,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -10634,7 +10631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -10645,7 +10642,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -10654,7 +10651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -10665,7 +10662,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -10674,7 +10671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -10685,7 +10682,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -10694,7 +10691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -10705,7 +10702,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -10714,7 +10711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -10734,7 +10731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -10745,7 +10742,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
@@ -10754,7 +10751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -10774,7 +10771,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -10785,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -10794,7 +10791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -10805,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -10814,7 +10811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -10825,7 +10822,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -10834,7 +10831,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -10845,7 +10842,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
@@ -10854,7 +10851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -10865,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
@@ -10874,7 +10871,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -10885,7 +10882,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
@@ -10894,7 +10891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -10905,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
@@ -10914,7 +10911,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -10925,7 +10922,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
